--- a/database/template_import_excel.xlsx
+++ b/database/template_import_excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hofar Ismail\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\tracker\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD39106-4B5B-46DB-A7A9-B4B6F98DE7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB1BE87-6773-4EB3-A189-7748F14CB2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5DF36652-89C8-4A2D-87F5-D29D0653ACBC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>program name</t>
   </si>
@@ -55,13 +55,37 @@
   </si>
   <si>
     <t>Aplikasi</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>keterangan</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Complate</t>
+  </si>
+  <si>
+    <t>Contoh Keterangan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +95,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -104,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -112,6 +143,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,20 +464,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82D942F-08B8-4FB6-8C0D-266422091A51}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -449,8 +490,20 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -460,8 +513,17 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5">
+        <v>45120.336238425924</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45120.336238425924</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -471,8 +533,28 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45121.336238368058</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45121.336238368058</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{2D9C48C5-4B66-406F-9A51-BBAE31781C67}">
+      <formula1>"Network, Aplikasi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{5911E01E-EF20-4F8F-A7AE-92383ED972E2}">
+      <formula1>"In Progress, Complate, Not Started"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/database/template_import_excel.xlsx
+++ b/database/template_import_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\tracker\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB1BE87-6773-4EB3-A189-7748F14CB2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C491C95-6D17-4C9E-99A9-3989328F394C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5DF36652-89C8-4A2D-87F5-D29D0653ACBC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>program name</t>
   </si>
@@ -72,10 +72,10 @@
     <t>In Progress</t>
   </si>
   <si>
-    <t>Complate</t>
-  </si>
-  <si>
     <t>Contoh Keterangan</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -150,6 +150,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +474,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,55 +510,61 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="7">
         <v>45120.336238425924</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="7">
         <v>45120.336238425924</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7">
+        <v>45121.336238368058</v>
+      </c>
+      <c r="F3" s="7">
+        <v>45121.336238368058</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45121.336238368058</v>
-      </c>
-      <c r="F3" s="5">
-        <v>45121.336238368058</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{2D9C48C5-4B66-406F-9A51-BBAE31781C67}">
       <formula1>"Network, Aplikasi"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{5911E01E-EF20-4F8F-A7AE-92383ED972E2}">
-      <formula1>"In Progress, Complate, Not Started"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{5911E01E-EF20-4F8F-A7AE-92383ED972E2}">
+      <formula1>"In Progress, Complete, Not Started"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{B86C81A5-FD97-4CED-AA86-70521F2D5136}">
+      <formula1>"In Progress, Completed, Not Started"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
